--- a/plantilla_claves.xlsx
+++ b/plantilla_claves.xlsx
@@ -8,23 +8,6 @@
   <definedNames/>
   <calcPr/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="E4">
-      <text>
-        <t xml:space="preserve">Ej: Último cambio: 01/01/2025
-Ej: No compartir nunca
-	-Lisseth Pinargote</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -120,7 +103,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +124,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEDDFEB"/>
+        <bgColor rgb="FFEDDFEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -152,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border/>
     <border>
       <left style="thin">
@@ -228,69 +217,29 @@
       </bottom>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFD9D9D9"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFF3F3F3"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FFF3F3F3"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FFF3F3F3"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
-      </top>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -340,52 +289,49 @@
     <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="9" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -394,18 +340,14 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -451,12 +393,48 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="1">
+  <tableStyles count="10">
     <tableStyle count="3" pivot="0" name="REGISTRO-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
+    <tableStyle count="2" pivot="0" name="REGISTRO-style 2">
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="REGISTRO-style 3">
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="REGISTRO-style 4">
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="REGISTRO-style 5">
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="REGISTRO-style 6">
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="REGISTRO-style 7">
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="REGISTRO-style 8">
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="REGISTRO-style 9">
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="REGISTRO-style 10">
+      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
   </tableStyles>
 </styleSheet>
 </file>
@@ -466,7 +444,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B4:E5" displayName="Tabla_1" name="Tabla_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B4:E6" displayName="Tabla_1" name="Tabla_1" id="1">
   <tableColumns count="4">
     <tableColumn name="NOMBRE DEL SERVICIO/APLICACIÓN" id="1"/>
     <tableColumn name="USUARIO USERNAME/CORREO" id="2"/>
@@ -474,6 +452,114 @@
     <tableColumn name="NOTA" id="4"/>
   </tableColumns>
   <tableStyleInfo name="REGISTRO-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B24:E24" displayName="Table_9" name="Table_9" id="10">
+  <tableColumns count="4">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="REGISTRO-style 10" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B8:E8" displayName="Table_1" name="Table_1" id="2">
+  <tableColumns count="4">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="REGISTRO-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B10:E10" displayName="Table_2" name="Table_2" id="3">
+  <tableColumns count="4">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="REGISTRO-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B12:E12" displayName="Table_3" name="Table_3" id="4">
+  <tableColumns count="4">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="REGISTRO-style 4" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B14:E14" displayName="Table_4" name="Table_4" id="5">
+  <tableColumns count="4">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="REGISTRO-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B16:E16" displayName="Table_5" name="Table_5" id="6">
+  <tableColumns count="4">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="REGISTRO-style 6" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B18:E18" displayName="Table_6" name="Table_6" id="7">
+  <tableColumns count="4">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="REGISTRO-style 7" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B20:E20" displayName="Table_7" name="Table_7" id="8">
+  <tableColumns count="4">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="REGISTRO-style 8" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B22:E22" displayName="Table_8" name="Table_8" id="9">
+  <tableColumns count="4">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="REGISTRO-style 9" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -539,18 +625,18 @@
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="17"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="21"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="17"/>
@@ -558,15 +644,15 @@
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
       <c r="E7" s="26"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="17"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="21"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="17"/>
@@ -574,15 +660,15 @@
       <c r="C9" s="24"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="21"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="17"/>
@@ -590,15 +676,15 @@
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="21"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="17"/>
@@ -606,15 +692,15 @@
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="21"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="21"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="17"/>
@@ -622,47 +708,47 @@
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="17"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="21"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="17"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="21"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="21"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="17"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="21"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="17"/>
@@ -670,126 +756,134 @@
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="21"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="21"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="17"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" ht="22.5" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="21"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" ht="22.5" customHeight="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" ht="22.5" customHeight="1">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" ht="22.5" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" ht="22.5" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" ht="22.5" customHeight="1">
-      <c r="A31" s="34"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" ht="22.5" customHeight="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
     </row>
     <row r="33" ht="22.5" customHeight="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" ht="6.0" customHeight="1">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId5"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="10">
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>